--- a/LFPR_w1.xlsx
+++ b/LFPR_w1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,115 +463,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bitcoin_lag0</t>
+          <t>Dogecoin_lag2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.604338593490931e-06</v>
+        <v>0.003483029424811586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4196140788430358</v>
+        <v>0.2992077536745214</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6556921383865413</v>
+        <v>0.09080239038311087</v>
       </c>
       <c r="E2" t="n">
-        <v>-56.2607575499903</v>
+        <v>69.65239394100533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>USD Coin_lag6</t>
+          <t>Bitcoin_lag0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.426166988263862e-05</v>
+        <v>4.241372025894713e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4196140788430358</v>
+        <v>0.2992077536745214</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7163691593994168</v>
+        <v>0.4939936025909924</v>
       </c>
       <c r="E3" t="n">
-        <v>-70.72095420978181</v>
+        <v>-65.10053517141114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>USD Coin_lag5</t>
+          <t>USD Coin_lag0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0002291450120439536</v>
+        <v>0.01035464970195151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4196140788430358</v>
+        <v>0.2992077536745214</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9806187727147666</v>
+        <v>1.023607014154308</v>
       </c>
       <c r="E4" t="n">
-        <v>-133.6953934955039</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tether_lag5</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03127486329760495</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4196140788430358</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.007556019121849</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-140.1149222399527</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>USD Coin_lag4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.001691967461858562</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4196140788430358</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.159939566204418</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-176.4300877135999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>USD Coin_lag2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0003439471528530054</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4196140788430358</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.204240697376237</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-186.987677033283</v>
+        <v>-242.1057782037926</v>
       </c>
     </row>
   </sheetData>
